--- a/levels/Excel Files/level_05.xlsx
+++ b/levels/Excel Files/level_05.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:AC21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
